--- a/총단/명단/성남지부 15년2학기 임원단 명단.xlsx
+++ b/총단/명단/성남지부 15년2학기 임원단 명단.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="101">
   <si>
     <t>휴대전화</t>
   </si>
@@ -549,6 +549,8 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
       </rPr>
       <t>2772</t>
     </r>
@@ -567,6 +569,8 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
       </rPr>
       <t>3660</t>
     </r>
@@ -666,6 +670,8 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
       </rPr>
       <t>3217</t>
     </r>
@@ -684,6 +690,8 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
       </rPr>
       <t>4569</t>
     </r>
@@ -752,6 +760,8 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
       </rPr>
       <t>2292</t>
     </r>
@@ -770,6 +780,8 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
       </rPr>
       <t>5330</t>
     </r>
@@ -791,6 +803,8 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
       </rPr>
       <t>10</t>
     </r>
@@ -809,6 +823,8 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
       </rPr>
       <t>4100</t>
     </r>
@@ -827,6 +843,8 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
       </rPr>
       <t>7678</t>
     </r>
@@ -898,6 +916,9 @@
   <si>
     <t>총단</t>
     <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>dpdmswh@hanmail.net</t>
   </si>
 </sst>
 </file>
@@ -1378,9 +1399,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1451,6 +1469,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1748,7 +1769,7 @@
   <dimension ref="A1:K115"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="I19" sqref="H19:I19"/>
+      <selection activeCell="K12" sqref="D12:K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1769,18 +1790,18 @@
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
-      <c r="K1" s="23"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="46"/>
+      <c r="K1" s="46"/>
     </row>
     <row r="3" spans="1:11" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="11" t="s">
@@ -1815,7 +1836,7 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="21" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="42" t="s">
+      <c r="A4" s="41" t="s">
         <v>99</v>
       </c>
       <c r="B4" s="17" t="s">
@@ -1833,7 +1854,7 @@
       <c r="F4" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="G4" s="37">
+      <c r="G4" s="36">
         <v>10</v>
       </c>
       <c r="H4" s="10">
@@ -1842,7 +1863,7 @@
       <c r="I4" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="J4" s="46" t="s">
+      <c r="J4" s="45" t="s">
         <v>28</v>
       </c>
       <c r="K4" s="19" t="s">
@@ -1850,7 +1871,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="43"/>
+      <c r="A5" s="42"/>
       <c r="B5" s="20" t="s">
         <v>15</v>
       </c>
@@ -1866,7 +1887,7 @@
       <c r="F5" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="G5" s="38">
+      <c r="G5" s="37">
         <v>13</v>
       </c>
       <c r="H5" s="3">
@@ -1883,7 +1904,7 @@
       </c>
     </row>
     <row r="6" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="43"/>
+      <c r="A6" s="42"/>
       <c r="B6" s="20" t="s">
         <v>20</v>
       </c>
@@ -1899,7 +1920,7 @@
       <c r="F6" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="G6" s="38">
+      <c r="G6" s="37">
         <v>11</v>
       </c>
       <c r="H6" s="3">
@@ -1916,7 +1937,7 @@
       </c>
     </row>
     <row r="7" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="43"/>
+      <c r="A7" s="42"/>
       <c r="B7" s="20" t="s">
         <v>20</v>
       </c>
@@ -1932,7 +1953,7 @@
       <c r="F7" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="G7" s="38">
+      <c r="G7" s="37">
         <v>12</v>
       </c>
       <c r="H7" s="3">
@@ -1949,40 +1970,40 @@
       </c>
     </row>
     <row r="8" spans="1:11" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="44"/>
-      <c r="B8" s="26" t="s">
+      <c r="A8" s="43"/>
+      <c r="B8" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="27" t="s">
+      <c r="C8" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="27" t="s">
+      <c r="D8" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="E8" s="27" t="s">
+      <c r="E8" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="F8" s="27" t="s">
+      <c r="F8" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="G8" s="39">
+      <c r="G8" s="38">
         <v>14</v>
       </c>
-      <c r="H8" s="28">
+      <c r="H8" s="27">
         <v>2</v>
       </c>
-      <c r="I8" s="27" t="s">
+      <c r="I8" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="J8" s="29" t="s">
+      <c r="J8" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="K8" s="30" t="s">
+      <c r="K8" s="29" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="21" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="42" t="s">
+      <c r="A9" s="41" t="s">
         <v>96</v>
       </c>
       <c r="B9" s="17" t="s">
@@ -2000,7 +2021,7 @@
       <c r="F9" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="G9" s="37">
+      <c r="G9" s="36">
         <v>13</v>
       </c>
       <c r="H9" s="10">
@@ -2009,7 +2030,7 @@
       <c r="I9" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="J9" s="25" t="s">
+      <c r="J9" s="24" t="s">
         <v>58</v>
       </c>
       <c r="K9" s="19" t="s">
@@ -2017,7 +2038,7 @@
       </c>
     </row>
     <row r="10" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="43"/>
+      <c r="A10" s="42"/>
       <c r="B10" s="20" t="s">
         <v>51</v>
       </c>
@@ -2033,7 +2054,7 @@
       <c r="F10" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="G10" s="38">
+      <c r="G10" s="37">
         <v>14</v>
       </c>
       <c r="H10" s="3">
@@ -2050,7 +2071,7 @@
       </c>
     </row>
     <row r="11" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="43"/>
+      <c r="A11" s="42"/>
       <c r="B11" s="20" t="s">
         <v>52</v>
       </c>
@@ -2063,10 +2084,10 @@
       <c r="E11" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="F11" s="24" t="s">
+      <c r="F11" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="G11" s="38">
+      <c r="G11" s="37">
         <v>14</v>
       </c>
       <c r="H11" s="3">
@@ -2075,7 +2096,7 @@
       <c r="I11" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="J11" s="46" t="s">
+      <c r="J11" s="45" t="s">
         <v>65</v>
       </c>
       <c r="K11" s="22" t="s">
@@ -2083,7 +2104,7 @@
       </c>
     </row>
     <row r="12" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="43"/>
+      <c r="A12" s="42"/>
       <c r="B12" s="20" t="s">
         <v>53</v>
       </c>
@@ -2099,7 +2120,7 @@
       <c r="F12" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="G12" s="38">
+      <c r="G12" s="37">
         <v>14</v>
       </c>
       <c r="H12" s="3">
@@ -2116,106 +2137,108 @@
       </c>
     </row>
     <row r="13" spans="1:11" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="44"/>
-      <c r="B13" s="26" t="s">
+      <c r="A13" s="43"/>
+      <c r="B13" s="25" t="s">
         <v>67</v>
       </c>
-      <c r="C13" s="27" t="s">
+      <c r="C13" s="26" t="s">
         <v>68</v>
       </c>
-      <c r="D13" s="27" t="s">
+      <c r="D13" s="26" t="s">
         <v>54</v>
       </c>
-      <c r="E13" s="27" t="s">
+      <c r="E13" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="F13" s="27" t="s">
+      <c r="F13" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="G13" s="39">
+      <c r="G13" s="38">
         <v>14</v>
       </c>
-      <c r="H13" s="28">
+      <c r="H13" s="27">
         <v>2</v>
       </c>
-      <c r="I13" s="27" t="s">
+      <c r="I13" s="26" t="s">
         <v>74</v>
       </c>
-      <c r="J13" s="31" t="s">
+      <c r="J13" s="30" t="s">
         <v>75</v>
       </c>
-      <c r="K13" s="30" t="s">
+      <c r="K13" s="29" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="21" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="42" t="s">
+      <c r="A14" s="41" t="s">
         <v>97</v>
       </c>
-      <c r="B14" s="32" t="s">
+      <c r="B14" s="31" t="s">
         <v>85</v>
       </c>
-      <c r="C14" s="33" t="s">
+      <c r="C14" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="D14" s="33" t="s">
+      <c r="D14" s="32" t="s">
         <v>54</v>
       </c>
-      <c r="E14" s="33" t="s">
+      <c r="E14" s="32" t="s">
         <v>86</v>
       </c>
-      <c r="F14" s="33" t="s">
+      <c r="F14" s="32" t="s">
         <v>87</v>
       </c>
-      <c r="G14" s="41">
+      <c r="G14" s="40">
         <v>13</v>
       </c>
-      <c r="H14" s="34">
+      <c r="H14" s="33">
         <v>2</v>
       </c>
-      <c r="I14" s="33" t="s">
+      <c r="I14" s="32" t="s">
         <v>90</v>
       </c>
-      <c r="J14" s="35"/>
-      <c r="K14" s="40" t="s">
+      <c r="J14" s="34" t="s">
+        <v>100</v>
+      </c>
+      <c r="K14" s="39" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="44"/>
-      <c r="B15" s="26" t="s">
+      <c r="A15" s="43"/>
+      <c r="B15" s="25" t="s">
         <v>89</v>
       </c>
-      <c r="C15" s="27" t="s">
+      <c r="C15" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="D15" s="36" t="s">
+      <c r="D15" s="35" t="s">
         <v>54</v>
       </c>
-      <c r="E15" s="27" t="s">
+      <c r="E15" s="26" t="s">
         <v>86</v>
       </c>
-      <c r="F15" s="27" t="s">
+      <c r="F15" s="26" t="s">
         <v>87</v>
       </c>
-      <c r="G15" s="39">
+      <c r="G15" s="38">
         <v>14</v>
       </c>
-      <c r="H15" s="28">
+      <c r="H15" s="27">
         <v>3</v>
       </c>
-      <c r="I15" s="27" t="s">
+      <c r="I15" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="J15" s="29" t="s">
+      <c r="J15" s="28" t="s">
         <v>92</v>
       </c>
-      <c r="K15" s="30" t="s">
+      <c r="K15" s="29" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="21" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="45" t="s">
+      <c r="A16" s="44" t="s">
         <v>98</v>
       </c>
       <c r="B16" s="17" t="s">
@@ -2233,7 +2256,7 @@
       <c r="F16" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="G16" s="37">
+      <c r="G16" s="36">
         <v>13</v>
       </c>
       <c r="H16" s="10">
@@ -2242,7 +2265,7 @@
       <c r="I16" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="J16" s="46" t="s">
+      <c r="J16" s="45" t="s">
         <v>82</v>
       </c>
       <c r="K16" s="19" t="s">
